--- a/exp.xlsx
+++ b/exp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giwrg\Desktop\thesis\saved_models_old_parse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giwrg\Desktop\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7E7A5E-2D14-4B9A-B484-0C2BBFEF779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550BDB54-2283-4D2A-93FE-219AE2311AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>GSB</t>
   </si>
@@ -58,7 +58,13 @@
     <t>SetBased4</t>
   </si>
   <si>
-    <t>GSB4</t>
+    <t>punc_with_no_q</t>
+  </si>
+  <si>
+    <t>punc_stop</t>
+  </si>
+  <si>
+    <t>GSB4_punv</t>
   </si>
 </sst>
 </file>
@@ -111,6 +117,1528 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.28100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2331-4666-B3C8-7044658494E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.30099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.27700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.28199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.32700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.28199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2331-4666-B3C8-7044658494E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="15338143"/>
+        <c:axId val="15326079"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15338143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15326079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15326079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15338143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E286DD9-09C5-4A86-81C7-E7B35AE3C265}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,15 +1904,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="O92" sqref="O92"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -404,20 +1932,26 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
       <c r="L1" t="s">
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.19400000000000001</v>
       </c>
@@ -440,14 +1974,22 @@
       <c r="J2">
         <v>0.37</v>
       </c>
+      <c r="K2">
+        <f>I2-J2</f>
+        <v>-0.11199999999999999</v>
+      </c>
       <c r="L2">
         <v>0.18099999999999999</v>
       </c>
       <c r="M2">
         <v>0.30099999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <f>L2-M2</f>
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.7E-2</v>
       </c>
@@ -470,14 +2012,22 @@
       <c r="J3">
         <v>0.105</v>
       </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">I3-J3</f>
+        <v>-7.3999999999999996E-2</v>
+      </c>
       <c r="L3">
         <v>2.7E-2</v>
       </c>
       <c r="M3">
         <v>6.9000000000000006E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="2">L3-M3</f>
+        <v>-4.200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.13</v>
       </c>
@@ -500,14 +2050,22 @@
       <c r="J4">
         <v>0.156</v>
       </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>-2.3999999999999994E-2</v>
+      </c>
       <c r="L4">
         <v>0.13400000000000001</v>
       </c>
       <c r="M4">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9.7000000000000003E-2</v>
       </c>
@@ -530,14 +2088,22 @@
       <c r="J5">
         <v>9.2999999999999999E-2</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000006E-2</v>
+      </c>
       <c r="L5">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="M5">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.25900000000000001</v>
       </c>
@@ -560,14 +2126,22 @@
       <c r="J6">
         <v>9.8000000000000004E-2</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.18799999999999997</v>
+      </c>
       <c r="L6">
         <v>0.26900000000000002</v>
       </c>
       <c r="M6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.14599999999999999</v>
       </c>
@@ -590,14 +2164,22 @@
       <c r="J7">
         <v>0.11799999999999999</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000006E-2</v>
+      </c>
       <c r="L7">
         <v>0.13900000000000001</v>
       </c>
       <c r="M7">
         <v>0.14599999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>-6.9999999999999785E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6.0999999999999999E-2</v>
       </c>
@@ -620,14 +2202,22 @@
       <c r="J8">
         <v>0.115</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>-5.3000000000000005E-2</v>
+      </c>
       <c r="L8">
         <v>6.2E-2</v>
       </c>
       <c r="M8">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>-5.7999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6.8000000000000005E-2</v>
       </c>
@@ -650,14 +2240,22 @@
       <c r="J9">
         <v>3.1E-2</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
       <c r="L9">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="M9">
         <v>2.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>3.9000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.09</v>
       </c>
@@ -680,14 +2278,22 @@
       <c r="J10">
         <v>3.9E-2</v>
       </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.14099999999999999</v>
+      </c>
       <c r="L10">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="M10">
         <v>9.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.26800000000000002</v>
       </c>
@@ -710,14 +2316,22 @@
       <c r="J11">
         <v>2.1000000000000001E-2</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.32799999999999996</v>
+      </c>
       <c r="L11">
         <v>0.27100000000000002</v>
       </c>
       <c r="M11">
         <v>0.17399999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>9.7000000000000031E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.23899999999999999</v>
       </c>
@@ -740,14 +2354,22 @@
       <c r="J12">
         <v>0.51800000000000002</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>-5.2999999999999992E-2</v>
+      </c>
       <c r="L12">
         <v>0.24399999999999999</v>
       </c>
       <c r="M12">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>-0.11599999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6.9000000000000006E-2</v>
       </c>
@@ -770,14 +2392,22 @@
       <c r="J13">
         <v>0.252</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
       <c r="L13">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="M13">
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>-0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.08</v>
       </c>
@@ -800,14 +2430,22 @@
       <c r="J14">
         <v>0.19700000000000001</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>-8.6000000000000007E-2</v>
+      </c>
       <c r="L14">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M14">
         <v>0.14499999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>-5.9999999999999984E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.13500000000000001</v>
       </c>
@@ -830,14 +2468,22 @@
       <c r="J15">
         <v>7.2999999999999995E-2</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.106</v>
+      </c>
       <c r="L15">
         <v>0.129</v>
       </c>
       <c r="M15">
         <v>6.6000000000000003E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.17100000000000001</v>
       </c>
@@ -860,14 +2506,22 @@
       <c r="J16">
         <v>0.23300000000000001</v>
       </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>-7.0000000000000062E-3</v>
+      </c>
       <c r="L16">
         <v>0.17299999999999999</v>
       </c>
       <c r="M16">
         <v>0.219</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>-4.6000000000000013E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.30199999999999999</v>
       </c>
@@ -890,14 +2544,22 @@
       <c r="J17">
         <v>0.25600000000000001</v>
       </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999984E-2</v>
+      </c>
       <c r="L17">
         <v>0.309</v>
       </c>
       <c r="M17">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>4.8999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.14399999999999999</v>
       </c>
@@ -920,14 +2582,22 @@
       <c r="J18">
         <v>6.5000000000000002E-2</v>
       </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
       <c r="L18">
         <v>0.14499999999999999</v>
       </c>
       <c r="M18">
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>7.6999999999999985E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.183</v>
       </c>
@@ -950,14 +2620,22 @@
       <c r="J19">
         <v>0.21199999999999999</v>
       </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>-1.4999999999999986E-2</v>
+      </c>
       <c r="L19">
         <v>0.18</v>
       </c>
       <c r="M19">
         <v>0.20899999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>-2.8999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -980,14 +2658,22 @@
       <c r="J20">
         <v>4.9000000000000002E-2</v>
       </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>9.3999999999999986E-2</v>
+      </c>
       <c r="L20">
         <v>0.105</v>
       </c>
       <c r="M20">
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.38100000000000001</v>
       </c>
@@ -1010,14 +2696,22 @@
       <c r="J21">
         <v>4.2000000000000003E-2</v>
       </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.35600000000000004</v>
+      </c>
       <c r="L21">
         <v>0.39100000000000001</v>
       </c>
       <c r="M21">
         <v>0.44500000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>-5.3999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9.0999999999999998E-2</v>
       </c>
@@ -1040,14 +2734,22 @@
       <c r="J22">
         <v>0.13100000000000001</v>
       </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999996E-2</v>
+      </c>
       <c r="L22">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="M22">
         <v>0.14599999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>-5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.184</v>
       </c>
@@ -1070,14 +2772,22 @@
       <c r="J23">
         <v>0.21</v>
       </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>1.100000000000001E-2</v>
+      </c>
       <c r="L23">
         <v>0.23</v>
       </c>
       <c r="M23">
         <v>0.252</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>-2.1999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -1100,14 +2810,22 @@
       <c r="J24">
         <v>7.5999999999999998E-2</v>
       </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>-2.1999999999999999E-2</v>
+      </c>
       <c r="L24">
         <v>0.04</v>
       </c>
       <c r="M24">
         <v>6.9000000000000006E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>-2.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5.1999999999999998E-2</v>
       </c>
@@ -1130,14 +2848,22 @@
       <c r="J25">
         <v>6.5000000000000002E-2</v>
       </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>-6.9999999999999993E-3</v>
+      </c>
       <c r="L25">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M25">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>-2.3999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.12</v>
       </c>
@@ -1160,14 +2886,22 @@
       <c r="J26">
         <v>4.4999999999999998E-2</v>
       </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0.13700000000000001</v>
+      </c>
       <c r="L26">
         <v>0.13500000000000001</v>
       </c>
       <c r="M26">
         <v>0.11799999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000015E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.28499999999999998</v>
       </c>
@@ -1190,14 +2924,22 @@
       <c r="J27">
         <v>0.27300000000000002</v>
       </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
       <c r="L27">
         <v>0.30199999999999999</v>
       </c>
       <c r="M27">
         <v>0.40500000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>-0.10300000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3.6999999999999998E-2</v>
       </c>
@@ -1220,14 +2962,22 @@
       <c r="J28">
         <v>0.19600000000000001</v>
       </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>-1.6000000000000014E-2</v>
+      </c>
       <c r="L28">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="M28">
         <v>0.193</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>-0.157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.191</v>
       </c>
@@ -1250,14 +3000,22 @@
       <c r="J29">
         <v>0.16800000000000001</v>
       </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999982E-2</v>
+      </c>
       <c r="L29">
         <v>0.20100000000000001</v>
       </c>
       <c r="M29">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>8.5000000000000006E-2</v>
       </c>
@@ -1280,14 +3038,22 @@
       <c r="J30">
         <v>0.1</v>
       </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
       <c r="L30">
         <v>0.09</v>
       </c>
       <c r="M30">
         <v>0.11899999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>-2.8999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.123</v>
       </c>
@@ -1310,14 +3076,22 @@
       <c r="J31">
         <v>0.26700000000000002</v>
       </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>-8.4000000000000019E-2</v>
+      </c>
       <c r="L31">
         <v>0.13200000000000001</v>
       </c>
       <c r="M31">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>-8.199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.14099999999999999</v>
       </c>
@@ -1340,14 +3114,22 @@
       <c r="J32">
         <v>0.28499999999999998</v>
       </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>-8.1999999999999962E-2</v>
+      </c>
       <c r="L32">
         <v>0.14799999999999999</v>
       </c>
       <c r="M32">
         <v>0.27700000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>-0.12900000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>7.8E-2</v>
       </c>
@@ -1370,14 +3152,22 @@
       <c r="J33">
         <v>0.128</v>
       </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>-1.7000000000000001E-2</v>
+      </c>
       <c r="L33">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="M33">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>-4.0999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.16300000000000001</v>
       </c>
@@ -1400,14 +3190,22 @@
       <c r="J34">
         <v>4.9000000000000002E-2</v>
       </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0.16599999999999998</v>
+      </c>
       <c r="L34">
         <v>0.19</v>
       </c>
       <c r="M34">
         <v>4.9000000000000002E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0.14100000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.14599999999999999</v>
       </c>
@@ -1430,14 +3228,22 @@
       <c r="J35">
         <v>0.215</v>
       </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000016E-2</v>
+      </c>
       <c r="L35">
         <v>0.21099999999999999</v>
       </c>
       <c r="M35">
         <v>0.21099999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1460,14 +3266,22 @@
       <c r="J36">
         <v>3.2000000000000001E-2</v>
       </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
       <c r="L36">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="M36">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.112</v>
       </c>
@@ -1490,14 +3304,22 @@
       <c r="J37">
         <v>0.24099999999999999</v>
       </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>-0.13700000000000001</v>
+      </c>
       <c r="L37">
         <v>0.112</v>
       </c>
       <c r="M37">
         <v>0.35899999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>-0.247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.33700000000000002</v>
       </c>
@@ -1520,14 +3342,22 @@
       <c r="J38">
         <v>0.193</v>
       </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0.246</v>
+      </c>
       <c r="L38">
         <v>0.36699999999999999</v>
       </c>
       <c r="M38">
         <v>0.17699999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -1550,14 +3380,22 @@
       <c r="J39">
         <v>6.0999999999999999E-2</v>
       </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>-5.9999999999999984E-3</v>
+      </c>
       <c r="L39">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="M39">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.27700000000000002</v>
       </c>
@@ -1580,14 +3418,22 @@
       <c r="J40">
         <v>0.126</v>
       </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>0.17799999999999999</v>
+      </c>
       <c r="L40">
         <v>0.29899999999999999</v>
       </c>
       <c r="M40">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>0.16399999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.19</v>
       </c>
@@ -1610,14 +3456,22 @@
       <c r="J41">
         <v>0.187</v>
       </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>3.7000000000000005E-2</v>
+      </c>
       <c r="L41">
         <v>0.20499999999999999</v>
       </c>
       <c r="M41">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>2.4999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.20899999999999999</v>
       </c>
@@ -1640,14 +3494,22 @@
       <c r="J42">
         <v>1.2E-2</v>
       </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>0.19399999999999998</v>
+      </c>
       <c r="L42">
         <v>0.255</v>
       </c>
       <c r="M42">
         <v>0.40200000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>-0.14700000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>9.9000000000000005E-2</v>
       </c>
@@ -1670,14 +3532,22 @@
       <c r="J43">
         <v>0.255</v>
       </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>-0.13800000000000001</v>
+      </c>
       <c r="L43">
         <v>0.10299999999999999</v>
       </c>
       <c r="M43">
         <v>0.25900000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>-0.15600000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.215</v>
       </c>
@@ -1700,14 +3570,22 @@
       <c r="J44">
         <v>0.114</v>
       </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0.11600000000000001</v>
+      </c>
       <c r="L44">
         <v>0.221</v>
       </c>
       <c r="M44">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.33400000000000002</v>
       </c>
@@ -1730,14 +3608,22 @@
       <c r="J45">
         <v>0.115</v>
       </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0.26500000000000001</v>
+      </c>
       <c r="L45">
         <v>0.29899999999999999</v>
       </c>
       <c r="M45">
         <v>0.122</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.121</v>
       </c>
@@ -1760,14 +3646,22 @@
       <c r="J46">
         <v>0.20399999999999999</v>
       </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>-3.3999999999999975E-2</v>
+      </c>
       <c r="L46">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="M46">
         <v>0.308</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>-0.23099999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.14099999999999999</v>
       </c>
@@ -1790,14 +3684,22 @@
       <c r="J47">
         <v>0.224</v>
       </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>-3.8000000000000006E-2</v>
+      </c>
       <c r="L47">
         <v>0.14099999999999999</v>
       </c>
       <c r="M47">
         <v>0.24099999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>9.1999999999999998E-2</v>
       </c>
@@ -1820,14 +3722,22 @@
       <c r="J48">
         <v>7.5999999999999998E-2</v>
       </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>2.7999999999999997E-2</v>
+      </c>
       <c r="L48">
         <v>0.09</v>
       </c>
       <c r="M48">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>-9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.17599999999999999</v>
       </c>
@@ -1850,14 +3760,22 @@
       <c r="J49">
         <v>3.1E-2</v>
       </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
       <c r="L49">
         <v>0.17499999999999999</v>
       </c>
       <c r="M49">
         <v>3.6999999999999998E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>0.13799999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.38300000000000001</v>
       </c>
@@ -1880,14 +3798,22 @@
       <c r="J50">
         <v>0.39300000000000002</v>
       </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999968E-2</v>
+      </c>
       <c r="L50">
         <v>0.40200000000000002</v>
       </c>
       <c r="M50">
         <v>0.42799999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>-2.5999999999999968E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1910,14 +3836,22 @@
       <c r="J51">
         <v>0.23499999999999999</v>
       </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>-4.2999999999999983E-2</v>
+      </c>
       <c r="L51">
         <v>0.1</v>
       </c>
       <c r="M51">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.307</v>
       </c>
@@ -1940,14 +3874,22 @@
       <c r="J52">
         <v>0.221</v>
       </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999983E-2</v>
+      </c>
       <c r="L52">
         <v>0.307</v>
       </c>
       <c r="M52">
         <v>0.23899999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5.0999999999999997E-2</v>
       </c>
@@ -1970,14 +3912,22 @@
       <c r="J53">
         <v>0.502</v>
       </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>-0.45</v>
+      </c>
       <c r="L53">
         <v>0.05</v>
       </c>
       <c r="M53">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N53">
+        <f t="shared" si="2"/>
+        <v>-0.54999999999999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.20599999999999999</v>
       </c>
@@ -2000,14 +3950,22 @@
       <c r="J54">
         <v>0.24099999999999999</v>
       </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>-2.4999999999999994E-2</v>
+      </c>
       <c r="L54">
         <v>0.19800000000000001</v>
       </c>
       <c r="M54">
         <v>0.23899999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <f t="shared" si="2"/>
+        <v>-4.0999999999999981E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.30299999999999999</v>
       </c>
@@ -2030,14 +3988,22 @@
       <c r="J55">
         <v>0.41699999999999998</v>
       </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>-2.6999999999999968E-2</v>
+      </c>
       <c r="L55">
         <v>0.29299999999999998</v>
       </c>
       <c r="M55">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N55">
+        <f t="shared" si="2"/>
+        <v>-6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4.2999999999999997E-2</v>
       </c>
@@ -2060,14 +4026,22 @@
       <c r="J56">
         <v>3.4000000000000002E-2</v>
       </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>-7.0000000000000027E-3</v>
+      </c>
       <c r="L56">
         <v>0.04</v>
       </c>
       <c r="M56">
         <v>3.9E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>8.7999999999999995E-2</v>
       </c>
@@ -2090,14 +4064,22 @@
       <c r="J57">
         <v>9.2999999999999999E-2</v>
       </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
       <c r="L57">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="M57">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N57">
+        <f t="shared" si="2"/>
+        <v>-1.8999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.34499999999999997</v>
       </c>
@@ -2120,14 +4102,22 @@
       <c r="J58">
         <v>0.16500000000000001</v>
       </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>0.28500000000000003</v>
+      </c>
       <c r="L58">
         <v>0.36799999999999999</v>
       </c>
       <c r="M58">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N58">
+        <f t="shared" si="2"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.27200000000000002</v>
       </c>
@@ -2150,14 +4140,22 @@
       <c r="J59">
         <v>0.123</v>
       </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>0.188</v>
+      </c>
       <c r="L59">
         <v>0.28100000000000003</v>
       </c>
       <c r="M59">
         <v>0.114</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N59">
+        <f t="shared" si="2"/>
+        <v>0.16700000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.14299999999999999</v>
       </c>
@@ -2180,14 +4178,22 @@
       <c r="J60">
         <v>0.156</v>
       </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000053E-3</v>
+      </c>
       <c r="L60">
         <v>0.14799999999999999</v>
       </c>
       <c r="M60">
         <v>0.14199999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N60">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5.2999999999999999E-2</v>
       </c>
@@ -2210,14 +4216,22 @@
       <c r="J61">
         <v>0.08</v>
       </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>-1.2999999999999998E-2</v>
+      </c>
       <c r="L61">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="M61">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>-2.4E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.245</v>
       </c>
@@ -2240,14 +4254,22 @@
       <c r="J62">
         <v>0.36299999999999999</v>
       </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>-7.9000000000000015E-2</v>
+      </c>
       <c r="L62">
         <v>0.253</v>
       </c>
       <c r="M62">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N62">
+        <f t="shared" si="2"/>
+        <v>-0.14700000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.25900000000000001</v>
       </c>
@@ -2270,14 +4292,22 @@
       <c r="J63">
         <v>0.161</v>
       </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>0.10100000000000001</v>
+      </c>
       <c r="L63">
         <v>0.25900000000000001</v>
       </c>
       <c r="M63">
         <v>0.156</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N63">
+        <f t="shared" si="2"/>
+        <v>0.10300000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -2300,14 +4330,22 @@
       <c r="J64">
         <v>6.0999999999999999E-2</v>
       </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
       <c r="L64">
         <v>7.8E-2</v>
       </c>
       <c r="M64">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N64">
+        <f t="shared" si="2"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.10199999999999999</v>
       </c>
@@ -2330,14 +4368,22 @@
       <c r="J65">
         <v>4.9000000000000002E-2</v>
       </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>7.5999999999999998E-2</v>
+      </c>
       <c r="L65">
         <v>0.105</v>
       </c>
       <c r="M65">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N65">
+        <f t="shared" si="2"/>
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.182</v>
       </c>
@@ -2360,14 +4406,22 @@
       <c r="J66">
         <v>7.5999999999999998E-2</v>
       </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>0.13900000000000001</v>
+      </c>
       <c r="L66">
         <v>0.183</v>
       </c>
       <c r="M66">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N66">
+        <f t="shared" si="2"/>
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.124</v>
       </c>
@@ -2375,7 +4429,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" si="1">A67-B67</f>
+        <f t="shared" ref="C67:C101" si="3">A67-B67</f>
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="F67">
@@ -2390,14 +4444,22 @@
       <c r="J67">
         <v>0.123</v>
       </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K101" si="4">I67-J67</f>
+        <v>1.8999999999999989E-2</v>
+      </c>
       <c r="L67">
         <v>0.127</v>
       </c>
       <c r="M67">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N67">
+        <f t="shared" ref="N67:N90" si="5">L67-M67</f>
+        <v>2.5000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.21</v>
       </c>
@@ -2405,7 +4467,7 @@
         <v>0.112</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.799999999999999E-2</v>
       </c>
       <c r="F68">
@@ -2420,14 +4482,22 @@
       <c r="J68">
         <v>0.158</v>
       </c>
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
       <c r="L68">
         <v>0.20799999999999999</v>
       </c>
       <c r="M68">
         <v>0.108</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N68">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>7.2999999999999995E-2</v>
       </c>
@@ -2435,7 +4505,7 @@
         <v>0.04</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2999999999999995E-2</v>
       </c>
       <c r="F69">
@@ -2450,14 +4520,22 @@
       <c r="J69">
         <v>4.2999999999999997E-2</v>
       </c>
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>3.1E-2</v>
+      </c>
       <c r="L69">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="M69">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N69">
+        <f t="shared" si="5"/>
+        <v>3.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>8.5000000000000006E-2</v>
       </c>
@@ -2465,7 +4543,7 @@
         <v>0.21</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.12499999999999999</v>
       </c>
       <c r="F70">
@@ -2480,14 +4558,22 @@
       <c r="J70">
         <v>0.33600000000000002</v>
       </c>
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>-0.19800000000000001</v>
+      </c>
       <c r="L70">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="M70">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N70">
+        <f t="shared" si="5"/>
+        <v>-0.127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.20499999999999999</v>
       </c>
@@ -2495,7 +4581,7 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.12200000000000003</v>
       </c>
       <c r="F71">
@@ -2510,14 +4596,22 @@
       <c r="J71">
         <v>0.439</v>
       </c>
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>-0.17299999999999999</v>
+      </c>
       <c r="L71">
         <v>0.20100000000000001</v>
       </c>
       <c r="M71">
         <v>0.32300000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N71">
+        <f t="shared" si="5"/>
+        <v>-0.122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.10199999999999999</v>
       </c>
@@ -2525,7 +4619,7 @@
         <v>0.39100000000000001</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.28900000000000003</v>
       </c>
       <c r="F72">
@@ -2540,14 +4634,22 @@
       <c r="J72">
         <v>0.45</v>
       </c>
+      <c r="K72">
+        <f t="shared" si="4"/>
+        <v>-0.22900000000000001</v>
+      </c>
       <c r="L72">
         <v>0.104</v>
       </c>
       <c r="M72">
         <v>0.33100000000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N72">
+        <f t="shared" si="5"/>
+        <v>-0.22700000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.29499999999999998</v>
       </c>
@@ -2555,7 +4657,7 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="F73">
@@ -2570,14 +4672,22 @@
       <c r="J73">
         <v>0.22800000000000001</v>
       </c>
+      <c r="K73">
+        <f t="shared" si="4"/>
+        <v>0.12499999999999997</v>
+      </c>
       <c r="L73">
         <v>0.3</v>
       </c>
       <c r="M73">
         <v>0.20699999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N73">
+        <f t="shared" si="5"/>
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.19</v>
       </c>
@@ -2585,7 +4695,7 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.14500000000000002</v>
       </c>
       <c r="F74">
@@ -2600,14 +4710,22 @@
       <c r="J74">
         <v>0.44900000000000001</v>
       </c>
+      <c r="K74">
+        <f t="shared" si="4"/>
+        <v>-0.16200000000000003</v>
+      </c>
       <c r="L74">
         <v>0.188</v>
       </c>
       <c r="M74">
         <v>0.34499999999999997</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N74">
+        <f t="shared" si="5"/>
+        <v>-0.15699999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.17499999999999999</v>
       </c>
@@ -2615,7 +4733,7 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="F75">
@@ -2630,14 +4748,22 @@
       <c r="J75">
         <v>0.17799999999999999</v>
       </c>
+      <c r="K75">
+        <f t="shared" si="4"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
       <c r="L75">
         <v>0.17699999999999999</v>
       </c>
       <c r="M75">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N75">
+        <f t="shared" si="5"/>
+        <v>6.9999999999999785E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.189</v>
       </c>
@@ -2645,7 +4771,7 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.15599999999999997</v>
       </c>
       <c r="F76">
@@ -2660,14 +4786,22 @@
       <c r="J76">
         <v>0.317</v>
       </c>
+      <c r="K76">
+        <f t="shared" si="4"/>
+        <v>-3.6999999999999977E-2</v>
+      </c>
       <c r="L76">
         <v>0.16900000000000001</v>
       </c>
       <c r="M76">
         <v>0.28199999999999997</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N76">
+        <f t="shared" si="5"/>
+        <v>-0.11299999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.14099999999999999</v>
       </c>
@@ -2675,7 +4809,7 @@
         <v>0.214</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.3000000000000009E-2</v>
       </c>
       <c r="F77">
@@ -2690,14 +4824,22 @@
       <c r="J77">
         <v>0.19900000000000001</v>
       </c>
+      <c r="K77">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
       <c r="L77">
         <v>0.13800000000000001</v>
       </c>
       <c r="M77">
         <v>0.20899999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N77">
+        <f t="shared" si="5"/>
+        <v>-7.099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.106</v>
       </c>
@@ -2705,7 +4847,7 @@
         <v>0.128</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.2000000000000006E-2</v>
       </c>
       <c r="F78">
@@ -2720,14 +4862,22 @@
       <c r="J78">
         <v>0.13900000000000001</v>
       </c>
+      <c r="K78">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
       <c r="L78">
         <v>0.11700000000000001</v>
       </c>
       <c r="M78">
         <v>0.13200000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N78">
+        <f t="shared" si="5"/>
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.115</v>
       </c>
@@ -2735,7 +4885,7 @@
         <v>0.113</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="F79">
@@ -2750,14 +4900,22 @@
       <c r="J79">
         <v>0.124</v>
       </c>
+      <c r="K79">
+        <f t="shared" si="4"/>
+        <v>4.200000000000001E-2</v>
+      </c>
       <c r="L79">
         <v>0.11600000000000001</v>
       </c>
       <c r="M79">
         <v>0.11799999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N79">
+        <f t="shared" si="5"/>
+        <v>-1.9999999999999879E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.14499999999999999</v>
       </c>
@@ -2765,7 +4923,7 @@
         <v>7.8E-2</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="F80">
@@ -2780,14 +4938,22 @@
       <c r="J80">
         <v>8.5000000000000006E-2</v>
       </c>
+      <c r="K80">
+        <f t="shared" si="4"/>
+        <v>6.4999999999999988E-2</v>
+      </c>
       <c r="L80">
         <v>0.14000000000000001</v>
       </c>
       <c r="M80">
         <v>0.10299999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N80">
+        <f t="shared" si="5"/>
+        <v>3.7000000000000019E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>9.7000000000000003E-2</v>
       </c>
@@ -2795,7 +4961,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.8000000000000006E-2</v>
       </c>
       <c r="F81">
@@ -2810,14 +4976,22 @@
       <c r="J81">
         <v>0.14799999999999999</v>
       </c>
+      <c r="K81">
+        <f t="shared" si="4"/>
+        <v>-6.0000000000000053E-3</v>
+      </c>
       <c r="L81">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="M81">
         <v>0.14199999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N81">
+        <f t="shared" si="5"/>
+        <v>-4.4999999999999984E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.183</v>
       </c>
@@ -2825,7 +4999,7 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.6000000000000013E-2</v>
       </c>
       <c r="F82">
@@ -2840,14 +5014,22 @@
       <c r="J82">
         <v>0.21</v>
       </c>
+      <c r="K82">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
       <c r="L82">
         <v>0.17399999999999999</v>
       </c>
       <c r="M82">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N82">
+        <f t="shared" si="5"/>
+        <v>-3.6000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.14299999999999999</v>
       </c>
@@ -2855,7 +5037,7 @@
         <v>0.13</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2999999999999984E-2</v>
       </c>
       <c r="F83">
@@ -2870,14 +5052,22 @@
       <c r="J83">
         <v>0.13300000000000001</v>
       </c>
+      <c r="K83">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999986E-2</v>
+      </c>
       <c r="L83">
         <v>0.129</v>
       </c>
       <c r="M83">
         <v>0.14399999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N83">
+        <f t="shared" si="5"/>
+        <v>-1.4999999999999986E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.191</v>
       </c>
@@ -2885,7 +5075,7 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0000000000000017E-2</v>
       </c>
       <c r="F84">
@@ -2900,14 +5090,22 @@
       <c r="J84">
         <v>0.13100000000000001</v>
       </c>
+      <c r="K84">
+        <f t="shared" si="4"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
       <c r="L84">
         <v>0.188</v>
       </c>
       <c r="M84">
         <v>0.16300000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N84">
+        <f t="shared" si="5"/>
+        <v>2.4999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.32900000000000001</v>
       </c>
@@ -2915,7 +5113,7 @@
         <v>0.29199999999999998</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.7000000000000033E-2</v>
       </c>
       <c r="F85">
@@ -2930,14 +5128,22 @@
       <c r="J85">
         <v>0.28899999999999998</v>
       </c>
+      <c r="K85">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000034E-2</v>
+      </c>
       <c r="L85">
         <v>0.32800000000000001</v>
       </c>
       <c r="M85">
         <v>0.29199999999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N85">
+        <f t="shared" si="5"/>
+        <v>3.6000000000000032E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -2945,7 +5151,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5000000000000003E-2</v>
       </c>
       <c r="F86">
@@ -2960,14 +5166,22 @@
       <c r="J86">
         <v>5.6000000000000001E-2</v>
       </c>
+      <c r="K86">
+        <f t="shared" si="4"/>
+        <v>1.9999999999999997E-2</v>
+      </c>
       <c r="L86">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="M86">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N86">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.23</v>
       </c>
@@ -2975,7 +5189,7 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="F87">
@@ -2990,14 +5204,22 @@
       <c r="J87">
         <v>0.221</v>
       </c>
+      <c r="K87">
+        <f t="shared" si="4"/>
+        <v>2.3999999999999994E-2</v>
+      </c>
       <c r="L87">
         <v>0.24099999999999999</v>
       </c>
       <c r="M87">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N87">
+        <f t="shared" si="5"/>
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>6.9000000000000006E-2</v>
       </c>
@@ -3005,7 +5227,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2000000000000004E-2</v>
       </c>
       <c r="F88">
@@ -3020,14 +5242,22 @@
       <c r="J88">
         <v>6.3E-2</v>
       </c>
+      <c r="K88">
+        <f t="shared" si="4"/>
+        <v>2.1000000000000005E-2</v>
+      </c>
       <c r="L88">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M88">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N88">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.10100000000000001</v>
       </c>
@@ -3035,7 +5265,7 @@
         <v>0.152</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.099999999999999E-2</v>
       </c>
       <c r="F89">
@@ -3050,14 +5280,22 @@
       <c r="J89">
         <v>0.152</v>
       </c>
+      <c r="K89">
+        <f t="shared" si="4"/>
+        <v>-4.9000000000000002E-2</v>
+      </c>
       <c r="L89">
         <v>0.10199999999999999</v>
       </c>
       <c r="M89">
         <v>0.16200000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N89">
+        <f t="shared" si="5"/>
+        <v>-6.0000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.246</v>
       </c>
@@ -3065,7 +5303,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.22800000000000001</v>
       </c>
       <c r="F90">
@@ -3080,14 +5318,22 @@
       <c r="J90">
         <v>1.9E-2</v>
       </c>
+      <c r="K90">
+        <f t="shared" si="4"/>
+        <v>0.30399999999999999</v>
+      </c>
       <c r="L90">
         <v>0.246</v>
       </c>
       <c r="M90">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N90">
+        <f t="shared" si="5"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.41399999999999998</v>
       </c>
@@ -3095,7 +5341,7 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.28199999999999997</v>
       </c>
       <c r="F91">
@@ -3110,14 +5356,22 @@
       <c r="J91">
         <v>2.7E-2</v>
       </c>
+      <c r="K91">
+        <f t="shared" si="4"/>
+        <v>0.44</v>
+      </c>
       <c r="L91">
         <v>0.42099999999999999</v>
       </c>
       <c r="M91">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N91">
+        <f>L91-M91</f>
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.28399999999999997</v>
       </c>
@@ -3125,7 +5379,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="C92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.1000000000000036E-2</v>
       </c>
       <c r="F92">
@@ -3140,14 +5394,22 @@
       <c r="J92">
         <v>0.34300000000000003</v>
       </c>
+      <c r="K92">
+        <f t="shared" si="4"/>
+        <v>-3.5000000000000031E-2</v>
+      </c>
       <c r="L92">
         <v>0.28899999999999998</v>
       </c>
       <c r="M92">
         <v>0.32700000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N92">
+        <f t="shared" ref="N92:N101" si="6">L92-M92</f>
+        <v>-3.8000000000000034E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.26</v>
       </c>
@@ -3155,7 +5417,7 @@
         <v>0.252</v>
       </c>
       <c r="C93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="F93">
@@ -3170,14 +5432,22 @@
       <c r="J93">
         <v>0.29699999999999999</v>
       </c>
+      <c r="K93">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
       <c r="L93">
         <v>0.28699999999999998</v>
       </c>
       <c r="M93">
         <v>0.28199999999999997</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N93">
+        <f t="shared" si="6"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -3185,7 +5455,7 @@
         <v>0.124</v>
       </c>
       <c r="C94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.09</v>
       </c>
       <c r="F94">
@@ -3200,14 +5470,22 @@
       <c r="J94">
         <v>0.125</v>
       </c>
+      <c r="K94">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
       <c r="L94">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="M94">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N94">
+        <f t="shared" si="6"/>
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.23300000000000001</v>
       </c>
@@ -3215,7 +5493,7 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="C95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.2999999999999982E-2</v>
       </c>
       <c r="F95">
@@ -3230,14 +5508,22 @@
       <c r="J95">
         <v>0.307</v>
       </c>
+      <c r="K95">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
       <c r="L95">
         <v>0.23400000000000001</v>
       </c>
       <c r="M95">
         <v>0.30399999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N95">
+        <f t="shared" si="6"/>
+        <v>-6.9999999999999979E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.02</v>
       </c>
@@ -3245,7 +5531,7 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="C96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.308</v>
       </c>
       <c r="F96">
@@ -3260,14 +5546,22 @@
       <c r="J96">
         <v>0.30599999999999999</v>
       </c>
+      <c r="K96">
+        <f t="shared" si="4"/>
+        <v>-0.20499999999999999</v>
+      </c>
       <c r="L96">
         <v>0.02</v>
       </c>
       <c r="M96">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N96">
+        <f t="shared" si="6"/>
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.121</v>
       </c>
@@ -3275,7 +5569,7 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="C97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.15600000000000003</v>
       </c>
       <c r="F97">
@@ -3290,14 +5584,22 @@
       <c r="J97">
         <v>0.28899999999999998</v>
       </c>
+      <c r="K97">
+        <f t="shared" si="4"/>
+        <v>-7.2999999999999982E-2</v>
+      </c>
       <c r="L97">
         <v>0.123</v>
       </c>
       <c r="M97">
         <v>0.307</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N97">
+        <f t="shared" si="6"/>
+        <v>-0.184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.252</v>
       </c>
@@ -3305,7 +5607,7 @@
         <v>0.23</v>
       </c>
       <c r="C98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1999999999999992E-2</v>
       </c>
       <c r="F98">
@@ -3320,14 +5622,22 @@
       <c r="J98">
         <v>0.27300000000000002</v>
       </c>
+      <c r="K98">
+        <f t="shared" si="4"/>
+        <v>0.14799999999999996</v>
+      </c>
       <c r="L98">
         <v>0.27</v>
       </c>
       <c r="M98">
         <v>0.20100000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N98">
+        <f t="shared" si="6"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>8.8999999999999996E-2</v>
       </c>
@@ -3335,7 +5645,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="C99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-8.0000000000000071E-3</v>
       </c>
       <c r="F99">
@@ -3350,14 +5660,22 @@
       <c r="J99">
         <v>0.12</v>
       </c>
+      <c r="K99">
+        <f t="shared" si="4"/>
+        <v>-2.2999999999999993E-2</v>
+      </c>
       <c r="L99">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="M99">
         <v>9.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N99">
+        <f t="shared" si="6"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>8.5000000000000006E-2</v>
       </c>
@@ -3365,7 +5683,7 @@
         <v>0.60199999999999998</v>
       </c>
       <c r="C100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.51700000000000002</v>
       </c>
       <c r="F100">
@@ -3380,14 +5698,22 @@
       <c r="J100">
         <v>0.60199999999999998</v>
       </c>
+      <c r="K100">
+        <f t="shared" si="4"/>
+        <v>-0.33599999999999997</v>
+      </c>
       <c r="L100">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="M100">
         <v>0.60199999999999998</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N100">
+        <f t="shared" si="6"/>
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.11700000000000001</v>
       </c>
@@ -3395,7 +5721,7 @@
         <v>0.28299999999999997</v>
       </c>
       <c r="C101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.16599999999999998</v>
       </c>
       <c r="F101">
@@ -3410,14 +5736,22 @@
       <c r="J101">
         <v>0.28399999999999997</v>
       </c>
+      <c r="K101">
+        <f t="shared" si="4"/>
+        <v>-6.8999999999999978E-2</v>
+      </c>
       <c r="L101">
         <v>0.124</v>
       </c>
       <c r="M101">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N101">
+        <f t="shared" si="6"/>
+        <v>-0.16599999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <f>AVERAGE(A2:A101)</f>
         <v>0.16192000000000015</v>
@@ -3426,6 +5760,10 @@
         <f>AVERAGE(B2:B101)</f>
         <v>0.18604000000000004</v>
       </c>
+      <c r="C103">
+        <f>COUNTIF(C2:C101,"&lt;0")</f>
+        <v>56</v>
+      </c>
       <c r="F103">
         <f>AVERAGE(F2:F101)</f>
         <v>0.16238999999999998</v>
@@ -3442,6 +5780,10 @@
         <f>AVERAGE(J2:J101)</f>
         <v>0.18154999999999999</v>
       </c>
+      <c r="K103">
+        <f>COUNTIF(K2:K101,"&lt;0")</f>
+        <v>42</v>
+      </c>
       <c r="L103">
         <f>AVERAGE(L2:L102)</f>
         <v>0.16566</v>
@@ -3450,8 +5792,13 @@
         <f>AVERAGE(M2:M101)</f>
         <v>0.18793000000000004</v>
       </c>
+      <c r="N103">
+        <f>COUNTIF(N2:N101,"&lt;0")</f>
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>